--- a/doc/img/gantt.xlsx
+++ b/doc/img/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mydata\HOMEwork\Grade3_1\C++_Project\CPP_PROJECT_2020\doc\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AEAFD-03B0-4A9F-92C4-0D48D21DBF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17538B-6094-4CD5-8362-43E81FCD87DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
